--- a/Listas/Lista06-resolucao.xlsx
+++ b/Listas/Lista06-resolucao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\Listas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\Listas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -173,9 +173,6 @@
     <t>Médias abrangidas</t>
   </si>
   <si>
-    <t>q</t>
-  </si>
-  <si>
     <t>6 med</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>2 med</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,11 +785,11 @@
         <v>1.87</v>
       </c>
       <c r="F2" s="17">
-        <f>SUM(B2:E2)</f>
+        <f t="shared" ref="F2:F7" si="0">SUM(B2:E2)</f>
         <v>6.25</v>
       </c>
       <c r="H2" s="8">
-        <f>F2/4</f>
+        <f t="shared" ref="H2:H7" si="1">F2/4</f>
         <v>1.5625</v>
       </c>
       <c r="I2" s="10">
@@ -814,15 +814,15 @@
         <v>2.12</v>
       </c>
       <c r="F3" s="15">
-        <f>SUM(B3:E3)</f>
+        <f t="shared" si="0"/>
         <v>7.3</v>
       </c>
       <c r="H3" s="5">
-        <f>F3/4</f>
+        <f t="shared" si="1"/>
         <v>1.825</v>
       </c>
       <c r="I3" s="12">
-        <f t="shared" ref="I3:I7" si="0">SQRT($D$13/4)</f>
+        <f t="shared" ref="I3:I7" si="2">SQRT($D$13/4)</f>
         <v>0.36499096259740205</v>
       </c>
     </row>
@@ -843,15 +843,15 @@
         <v>1.58</v>
       </c>
       <c r="F4" s="15">
-        <f>SUM(B4:E4)</f>
+        <f t="shared" si="0"/>
         <v>7.15</v>
       </c>
       <c r="H4" s="5">
-        <f>F4/4</f>
+        <f t="shared" si="1"/>
         <v>1.7875000000000001</v>
       </c>
       <c r="I4" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.36499096259740205</v>
       </c>
     </row>
@@ -872,15 +872,15 @@
         <v>3.08</v>
       </c>
       <c r="F5" s="15">
-        <f>SUM(B5:E5)</f>
+        <f t="shared" si="0"/>
         <v>12.42</v>
       </c>
       <c r="H5" s="5">
-        <f>F5/4</f>
+        <f t="shared" si="1"/>
         <v>3.105</v>
       </c>
       <c r="I5" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.36499096259740205</v>
       </c>
     </row>
@@ -901,15 +901,15 @@
         <v>2.74</v>
       </c>
       <c r="F6" s="15">
-        <f>SUM(B6:E6)</f>
+        <f t="shared" si="0"/>
         <v>14.51</v>
       </c>
       <c r="H6" s="5">
-        <f>F6/4</f>
+        <f t="shared" si="1"/>
         <v>3.6274999999999999</v>
       </c>
       <c r="I6" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.36499096259740205</v>
       </c>
     </row>
@@ -930,19 +930,23 @@
         <v>4.18</v>
       </c>
       <c r="F7" s="16">
-        <f>SUM(B7:E7)</f>
+        <f t="shared" si="0"/>
         <v>18.899999999999999</v>
       </c>
       <c r="H7" s="6">
-        <f>F7/4</f>
+        <f t="shared" si="1"/>
         <v>4.7249999999999996</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.36499096259740205</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>SUMSQ(B2:E7)</f>
+        <v>225.96209999999999</v>
+      </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
@@ -1252,7 +1256,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D24">
         <v>3.32</v>
@@ -1279,19 +1283,19 @@
         <v>1.2117699958233747</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:H25" si="1">E24*SQRT($D$13/4)</f>
+        <f t="shared" ref="E25:H25" si="3">E24*SQRT($D$13/4)</f>
         <v>1.1935204476935046</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1716209899376606</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1387718033038945</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0840231589142841</v>
       </c>
     </row>
@@ -1308,19 +1312,19 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
         <v>50</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>51</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>52</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>53</v>
-      </c>
-      <c r="H27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
